--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_6AIML\meh\LLMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC4DBE8F-BE31-4278-98FA-1B35ACE4299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D024F-8EF7-4C4D-970F-69F00A137077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{299E19B8-F4A1-4D4E-BEC0-D6AB4483F225}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Attention</t>
   </si>
@@ -96,16 +96,34 @@
   </si>
   <si>
     <t>gen time (avg of 3)</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>latent dim = 32</t>
+  </si>
+  <si>
+    <t>kv_heads = 4</t>
+  </si>
+  <si>
+    <t>model size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,9 +149,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,21 +487,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED386B1-C0DC-41EF-8CB2-758929BC0C80}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,33 +521,39 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -539,31 +567,25 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
         <v>1024</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>20000000000000</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>2500</v>
       </c>
-      <c r="J2">
-        <v>130</v>
-      </c>
-      <c r="K2">
-        <v>4.2847</v>
-      </c>
-      <c r="L2">
+      <c r="N2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -577,22 +599,25 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
         <v>1024</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>20000000000000</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>2500</v>
       </c>
+      <c r="N3">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -606,22 +631,28 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
         <v>1024</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>20000000000000</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>2500</v>
       </c>
+      <c r="N4">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -635,25 +666,43 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2">
+        <v>17463296</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
         <v>1024</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>20000000000000</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>2500</v>
       </c>
+      <c r="L5">
+        <v>130</v>
+      </c>
+      <c r="M5">
+        <v>4.2847</v>
+      </c>
+      <c r="N5">
+        <v>5000</v>
+      </c>
+      <c r="O5">
+        <v>17.329999999999998</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -664,25 +713,31 @@
       <c r="E6">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>1024</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>20000000000000</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>2500</v>
       </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -693,22 +748,40 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>17222144</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
         <v>1024</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>20000000000000</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>2500</v>
       </c>
+      <c r="L7">
+        <v>77</v>
+      </c>
+      <c r="M7">
+        <v>4.4074999999999998</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="O7">
+        <v>24.45</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -722,20 +795,28 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
         <v>1024</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>20000000000000</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>2500</v>
+      </c>
+      <c r="N8">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_6AIML\meh\LLMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587D024F-8EF7-4C4D-970F-69F00A137077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC0BEF-222E-4B90-8790-D68876F67E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{299E19B8-F4A1-4D4E-BEC0-D6AB4483F225}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Attention</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>model size</t>
+  </si>
+  <si>
+    <t>Flash MHLA</t>
   </si>
 </sst>
 </file>
@@ -487,14 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED386B1-C0DC-41EF-8CB2-758929BC0C80}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
@@ -670,7 +674,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="2">
-        <v>17463296</v>
+        <v>16939008</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -811,6 +815,41 @@
         <v>2500</v>
       </c>
       <c r="N8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>1024</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20000000000000</v>
+      </c>
+      <c r="K9">
+        <v>2500</v>
+      </c>
+      <c r="N9">
         <v>5000</v>
       </c>
     </row>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_6AIML\meh\LLMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC0BEF-222E-4B90-8790-D68876F67E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5B8A09-35F5-4A27-B4FE-1635F854F73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{299E19B8-F4A1-4D4E-BEC0-D6AB4483F225}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Attention</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Flash MHLA</t>
+  </si>
+  <si>
+    <t>30s. Suprising.</t>
   </si>
 </sst>
 </file>
@@ -152,10 +155,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +499,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,6 +808,9 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
+      <c r="G8" s="2">
+        <v>16767488</v>
+      </c>
       <c r="H8">
         <v>8</v>
       </c>
@@ -814,8 +823,17 @@
       <c r="K8">
         <v>2500</v>
       </c>
+      <c r="L8">
+        <v>161</v>
+      </c>
+      <c r="M8">
+        <v>3.9992000000000001</v>
+      </c>
       <c r="N8">
         <v>5000</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
